--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.58</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -1416,12 +1416,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
+++ b/数据整理/stocks/A股/科创板/688158-优刻得.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.79</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.64</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1596,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.36</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1612,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.1</v>
       </c>
     </row>
